--- a/client/public/test-data/employees-validations.xlsx
+++ b/client/public/test-data/employees-validations.xlsx
@@ -436,13 +436,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>E-2001</v>
+        <v>E-9001</v>
       </c>
       <c r="B2" t="str">
         <v>Valid User</v>
       </c>
       <c r="C2" t="str">
-        <v>valid.user@acme.com</v>
+        <v>valid.user9001@acme.com</v>
       </c>
       <c r="D2" t="str">
         <v>+92-300-1234567</v>
@@ -468,13 +468,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>E-2002</v>
+        <v>E-9002</v>
       </c>
       <c r="B3" t="str">
         <v>Missing CNIC</v>
       </c>
       <c r="C3" t="str">
-        <v>missing.cnic@acme.com</v>
+        <v>missing.cnic9002@acme.com</v>
       </c>
       <c r="D3" t="str">
         <v>+92-300-1234567</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>E-2003</v>
+        <v>E-9003</v>
       </c>
       <c r="B4" t="str">
         <v>Invalid Email</v>
@@ -532,13 +532,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>E-2004</v>
+        <v>E-9004</v>
       </c>
       <c r="B5" t="str">
         <v>Invalid Mobile</v>
       </c>
       <c r="C5" t="str">
-        <v>valid.mail@acme.com</v>
+        <v>valid.mail9004@acme.com</v>
       </c>
       <c r="D5" t="str">
         <v>0312-12345</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>E-2005</v>
+        <v>E-9005</v>
       </c>
       <c r="B6" t="str">
         <v>Invalid CNIC</v>
       </c>
       <c r="C6" t="str">
-        <v>valid.mail2@acme.com</v>
+        <v>valid.mail9005@acme.com</v>
       </c>
       <c r="D6" t="str">
         <v>+92-301-7654321</v>
@@ -596,13 +596,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>E-2006</v>
+        <v>E-9006</v>
       </c>
       <c r="B7" t="str">
         <v>Duplicate EmpNo A</v>
       </c>
       <c r="C7" t="str">
-        <v>dup.emp1@acme.com</v>
+        <v>dup.emp9006a@acme.com</v>
       </c>
       <c r="D7" t="str">
         <v>03XX-7654321</v>
@@ -628,13 +628,13 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>E-2006</v>
+        <v>E-9006</v>
       </c>
       <c r="B8" t="str">
         <v>Duplicate EmpNo B</v>
       </c>
       <c r="C8" t="str">
-        <v>dup.emp2@acme.com</v>
+        <v>dup.emp9006b@acme.com</v>
       </c>
       <c r="D8" t="str">
         <v>+92-302-1111111</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>E-2007</v>
+        <v>E-9007</v>
       </c>
       <c r="B9" t="str">
         <v>Duplicate Email A</v>
       </c>
       <c r="C9" t="str">
-        <v>dup.email@acme.com</v>
+        <v>dup.email9007@acme.com</v>
       </c>
       <c r="D9" t="str">
         <v>+92-303-2222222</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>E-2008</v>
+        <v>E-9008</v>
       </c>
       <c r="B10" t="str">
         <v>Duplicate Email B</v>
       </c>
       <c r="C10" t="str">
-        <v>dup.email@acme.com</v>
+        <v>dup.email9007@acme.com</v>
       </c>
       <c r="D10" t="str">
         <v>03XX-3333333</v>
@@ -724,13 +724,13 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>E-2009</v>
+        <v>E-9009</v>
       </c>
       <c r="B11" t="str">
         <v>Invalid Dept</v>
       </c>
       <c r="C11" t="str">
-        <v>invalid.dept@acme.com</v>
+        <v>invalid.dept9009@acme.com</v>
       </c>
       <c r="D11" t="str">
         <v>+92-304-4444444</v>
@@ -756,13 +756,13 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>E-2010</v>
+        <v>E-9010</v>
       </c>
       <c r="B12" t="str">
         <v>Missing Plan</v>
       </c>
       <c r="C12" t="str">
-        <v>missing.plan@acme.com</v>
+        <v>missing.plan9010@acme.com</v>
       </c>
       <c r="D12" t="str">
         <v>+92-305-5555555</v>
@@ -788,13 +788,13 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>E-2011</v>
+        <v>E-9011</v>
       </c>
       <c r="B13" t="str">
         <v>Optional Fields Empty</v>
       </c>
       <c r="C13" t="str">
-        <v>optional.empty@acme.com</v>
+        <v>optional.empty9011@acme.com</v>
       </c>
       <c r="D13" t="str">
         <v>03XX-6666666</v>
